--- a/xlsemail/模板.xlsx
+++ b/xlsemail/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>邮件主题：</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>邮箱密码：</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>正文内容如果没有收件人或抄送人，请设置为xxx@chyjr.com</t>
   </si>
   <si>
     <t>姓名</t>
@@ -84,10 +90,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-804]General"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -132,6 +138,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -140,29 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +199,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -194,6 +216,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,45 +239,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,29 +278,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -289,13 +295,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,168 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,41 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -643,153 +634,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1178,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1234,8 +1240,13 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,7 +1260,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1265,62 +1276,62 @@
   <sheetData>
     <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>0.308</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6">
         <v>28.3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <v>0.308</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>28.3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
